--- a/template/売買取引管理表.xlsx
+++ b/template/売買取引管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\xampp\htdocs\ksb-bds\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5522493-FCF8-441D-9C15-6FB9F02F873A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF221AC-B227-455C-AA9B-C30C5CB11C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
   </bookViews>
   <sheets>
     <sheet name="売買取引管理表" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>$contractBukkenNo$</t>
     <phoneticPr fontId="2"/>
@@ -602,32 +602,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>残代金</t>
-    <rPh sb="0" eb="1">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ダイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>残代金支払期日</t>
-    <rPh sb="0" eb="1">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ダイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キジツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>支払完了日</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
@@ -719,6 +693,33 @@
   </si>
   <si>
     <t>$address$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明渡期日</t>
+    <rPh sb="0" eb="4">
+      <t>アケワタシキジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>留保金支払（明渡）日</t>
+    <rPh sb="0" eb="3">
+      <t>リュウホキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アケワタシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractorName$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -736,7 +737,7 @@
     <numFmt numFmtId="179" formatCode="0.00&quot;坪&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +932,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1225,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,160 +1446,206 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="18" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="18" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{D564ED84-1623-42A9-85B2-6C6F38B5BE7C}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3330,38 +3385,40 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69921875" style="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.08203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.08203125" style="1"/>
+    <col min="18" max="18" width="11.09765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.69921875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="4"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3383,7 +3440,7 @@
       <c r="O2" s="9"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3395,19 +3452,19 @@
       <c r="O3" s="9"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
@@ -3417,36 +3474,36 @@
       <c r="K4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="110"/>
+      <c r="O4" s="86"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="91" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="13" t="s">
@@ -3463,18 +3520,18 @@
       </c>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="13" t="s">
         <v>21</v>
       </c>
@@ -3489,18 +3546,18 @@
       </c>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="13" t="s">
         <v>25</v>
       </c>
@@ -3515,18 +3572,18 @@
       </c>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="16"/>
       <c r="M8" s="14"/>
       <c r="N8" s="15" t="s">
@@ -3537,18 +3594,18 @@
       </c>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="16"/>
       <c r="M9" s="14"/>
       <c r="N9" s="15" t="s">
@@ -3559,7 +3616,7 @@
       </c>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3571,7 +3628,7 @@
       <c r="O10" s="9"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:19" s="18" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="17" t="s">
         <v>33</v>
       </c>
@@ -3596,10 +3653,10 @@
       <c r="I11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="100"/>
+      <c r="K11" s="93"/>
       <c r="L11" s="20" t="s">
         <v>41</v>
       </c>
@@ -3625,7 +3682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="31" customFormat="1" ht="40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" s="31" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>48</v>
       </c>
@@ -3633,11 +3690,11 @@
       <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="75" t="s">
-        <v>99</v>
+      <c r="D12" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>50</v>
@@ -3646,15 +3703,15 @@
         <v>51</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="95"/>
       <c r="L12" s="27" t="s">
         <v>53</v>
       </c>
@@ -3675,27 +3732,27 @@
         <v>58</v>
       </c>
       <c r="S12" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="103" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C13" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="32">
         <f>SUM(G12:G12)</f>
         <v>0</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="106">
+      <c r="J13" s="99">
         <f>SUM(J12:K12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="107"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="35"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
@@ -3708,14 +3765,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L14" s="39"/>
       <c r="S14" s="40">
         <f>S13*0.3025</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L15" s="39"/>
       <c r="O15" s="41" t="s">
         <v>60</v>
@@ -3724,7 +3781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="C16" s="42" t="s">
         <v>62</v>
@@ -3737,12 +3794,12 @@
       <c r="P16"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="3:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C17" s="95" t="s">
+    <row r="17" spans="3:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="43" t="s">
         <v>64</v>
       </c>
@@ -3761,55 +3818,55 @@
       <c r="K17" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="89"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="88" t="s">
+      <c r="M17" s="106"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="90"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="103"/>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="91" t="s">
+    <row r="18" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="47" t="s">
+      <c r="H18" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="I18" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="J18" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="K18" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="L18" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="M18" s="109"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="31"/>
@@ -3831,7 +3888,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
     </row>
-    <row r="20" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
       <c r="E20" s="31"/>
@@ -3850,7 +3907,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C21" s="42" t="s">
         <v>72</v>
       </c>
@@ -3871,12 +3928,12 @@
       <c r="R21" s="58"/>
       <c r="S21" s="31"/>
     </row>
-    <row r="22" spans="3:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C22" s="95" t="s">
+    <row r="22" spans="3:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="90"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="43" t="s">
         <v>64</v>
       </c>
@@ -3902,26 +3959,26 @@
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
-    <row r="23" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="91" t="s">
+    <row r="23" spans="3:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="47" t="s">
+      <c r="H23" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="I23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="J23" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>89</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -3929,11 +3986,11 @@
       <c r="N23" s="58"/>
       <c r="O23" s="62"/>
       <c r="P23" s="58"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="112"/>
       <c r="S23" s="31"/>
     </row>
-    <row r="24" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="63"/>
       <c r="D24" s="58"/>
       <c r="E24" s="31"/>
@@ -3957,10 +4014,10 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
+    <row r="25" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="31"/>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
@@ -3968,14 +4025,28 @@
       <c r="N25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
       <c r="F26" s="66"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.45">
       <c r="F27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L4:M4"/>
@@ -3985,44 +4056,30 @@
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="K5:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="L17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C12:S12">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$C12="メトロス買取済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:S12">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>OR($K18="解除",$K18="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -4037,38 +4094,40 @@
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69921875" style="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.08203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.08203125" style="1"/>
+    <col min="18" max="18" width="11.09765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.69921875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="67"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4149,7 @@
       <c r="O2" s="9"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4102,7 +4161,7 @@
       <c r="O3" s="9"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
         <v>33</v>
       </c>
@@ -4121,30 +4180,36 @@
       <c r="G4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="113"/>
+      <c r="L4" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="116"/>
-      <c r="L4" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="72" t="s">
+      <c r="N4" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="31" customFormat="1" ht="40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" s="31" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
         <v>48</v>
       </c>
@@ -4152,48 +4217,58 @@
       <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="73" t="s">
+      <c r="D5" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="115"/>
+      <c r="L5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L6" s="39"/>
-      <c r="O6" s="79"/>
+      <c r="O6" s="73"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="74"/>
       <c r="F7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4201,73 +4276,73 @@
       <c r="P7"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C8" s="119" t="s">
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="81" t="s">
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="120" t="s">
+      <c r="K8" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120" t="s">
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
       <c r="Q8" s="31"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="H9" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="J9" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="K9" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="93"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
       <c r="Q9" s="31"/>
     </row>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="31"/>
@@ -4276,7 +4351,7 @@
         <f>SUM(G9:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="54"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
@@ -4289,7 +4364,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="31"/>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="31"/>
@@ -4308,7 +4383,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
       <c r="E12" s="31"/>
@@ -4327,10 +4402,10 @@
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="31"/>
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
@@ -4338,10 +4413,10 @@
       <c r="N13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F14" s="66"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F15" s="66"/>
     </row>
   </sheetData>
@@ -4356,28 +4431,48 @@
     <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>OR($K9="解除",$K9="解除（等価交換）")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:O5">
+  <conditionalFormatting sqref="C5:L5">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$C5="メトロス買取済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:L5">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:Q5">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$C5="メトロス買取済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:O5">
+  <conditionalFormatting sqref="N5:Q5">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($K9="解除",$K9="解除（等価交換）")</formula>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C5="メトロス買取済"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>

--- a/template/売買取引管理表.xlsx
+++ b/template/売買取引管理表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\xampp\htdocs\ksb-bds\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF221AC-B227-455C-AA9B-C30C5CB11C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA111C0-6B8F-444F-88A4-1EC8715BD837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
   </bookViews>
   <sheets>
     <sheet name="売買取引管理表" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>$contractBukkenNo$</t>
     <phoneticPr fontId="2"/>
@@ -628,10 +628,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$landOwnerName$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$supplierName_1$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -693,6 +689,14 @@
   </si>
   <si>
     <t>$address$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractorName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$deliveryFixedDay$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -716,10 +720,6 @@
     <rPh sb="9" eb="10">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$contractorName$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -941,7 +941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,18 +950,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -980,62 +974,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1067,17 +1005,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1121,110 +1048,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1234,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,9 +1094,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1292,12 +1112,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,49 +1121,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="17" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1358,33 +1154,12 @@
     <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,17 +1187,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,240 +1212,136 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="18" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="5" fontId="17" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="18" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{D564ED84-1623-42A9-85B2-6C6F38B5BE7C}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3385,40 +3047,38 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.09765625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.69921875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.09765625" style="1"/>
+    <col min="18" max="18" width="11.08203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="4"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3100,7 @@
       <c r="O2" s="9"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3452,171 +3112,171 @@
       <c r="O3" s="9"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86" t="s">
+      <c r="M4" s="79"/>
+      <c r="N4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="79"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="91" t="s">
+      <c r="J5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="91" t="s">
+      <c r="K5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="13" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="13" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3628,165 +3288,167 @@
       <c r="O10" s="9"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:19" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="20" t="s">
+      <c r="K11" s="72"/>
+      <c r="L11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="31" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:19" s="23" customFormat="1" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="95"/>
-      <c r="L12" s="27" t="s">
+      <c r="K12" s="74"/>
+      <c r="L12" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="29" t="s">
+      <c r="M12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="91" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C13" s="96" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="32">
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="93">
         <f>SUM(G12:G12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="99">
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="75">
         <f>SUM(J12:K12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="38">
+      <c r="K13" s="76"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="29">
         <f>SUM(S12:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="L14" s="39"/>
-      <c r="S14" s="40">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14" s="30"/>
+      <c r="S14" s="31">
         <f>S13*0.3025</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="L15" s="39"/>
-      <c r="O15" s="41" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="L15" s="30"/>
+      <c r="O15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="6"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="33"/>
       <c r="F16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3794,150 +3456,150 @@
       <c r="P16"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="3:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="101" t="s">
+    <row r="17" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="105" t="s">
+      <c r="L17" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="106"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="105" t="s">
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="31"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="107" t="s">
+    <row r="18" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="47" t="s">
+      <c r="G18" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="H18" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="I18" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="J18" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="K18" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="L18" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="108" t="s">
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="109"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="31"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53">
+    <row r="19" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37">
         <f>SUM(H18:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
-    <row r="20" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
+    <row r="20" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C21" s="42" t="s">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="31"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="23"/>
     </row>
-    <row r="22" spans="3:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C22" s="101" t="s">
+    <row r="22" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="60" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="59" t="s">
@@ -3946,107 +3608,93 @@
       <c r="I22" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
     </row>
-    <row r="23" spans="3:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="107" t="s">
+    <row r="23" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="47" t="s">
+      <c r="G23" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="H23" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="I23" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="J23" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="58"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="62"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="31"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="23"/>
     </row>
-    <row r="24" spans="3:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="63"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="64" t="s">
+    <row r="24" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="44"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="37">
         <f>SUM(G23:G23)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="58"/>
+    <row r="25" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="42"/>
       <c r="N25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="F26" s="66"/>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="F27" s="66"/>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L4:M4"/>
@@ -4056,30 +3704,44 @@
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="K5:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="Q23:R23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C12:S12">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$C12="メトロス買取済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:S12">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>OR($K18="解除",$K18="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -4094,40 +3756,38 @@
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.09765625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.69921875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.09765625" style="1"/>
+    <col min="18" max="18" width="11.08203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="67"/>
+      <c r="O1" s="48"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="L2" s="67"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="7" t="s">
         <v>75</v>
       </c>
@@ -4149,126 +3809,126 @@
       <c r="O2" s="9"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="L3" s="67"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="7"/>
       <c r="N3" s="11"/>
       <c r="O3" s="9"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:19" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="72"/>
+      <c r="L4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="118" t="s">
+      <c r="O4" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="118" t="s">
+      <c r="P4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="31" customFormat="1" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:19" s="23" customFormat="1" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="72" t="s">
+      <c r="K5" s="86"/>
+      <c r="L5" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="91" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="L6" s="39"/>
-      <c r="O6" s="73"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="30"/>
+      <c r="O6" s="55"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="6"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4276,148 +3936,148 @@
       <c r="P7"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="116" t="s">
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="75" t="s">
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117" t="s">
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="31"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="23"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="107" t="s">
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="I9" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="J9" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="K9" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="108" t="s">
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="53">
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37">
         <f>SUM(G9:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="58"/>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="42"/>
       <c r="N13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="F14" s="66"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="F15" s="66"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4431,48 +4091,8 @@
     <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>OR($K9="解除",$K9="解除（等価交換）")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$C5="メトロス買取済"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:L5">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:Q5">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$C5="メトロス買取済"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:Q5">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>OR($C5="解除",$C5="解除（等価交換）")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C5="メトロス買取済"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>

--- a/template/売買取引管理表.xlsx
+++ b/template/売買取引管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA111C0-6B8F-444F-88A4-1EC8715BD837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EDA3B5-5537-48B5-AA1E-DA7AFA3BF036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
   <si>
     <t>$contractBukkenNo$</t>
     <phoneticPr fontId="2"/>
@@ -609,10 +609,6 @@
     <rPh sb="2" eb="5">
       <t>カンリョウビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$tradingBalance$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1258,6 +1254,66 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="17" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="18" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1270,78 +1326,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="18" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="17" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{D564ED84-1623-42A9-85B2-6C6F38B5BE7C}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3115,16 +3121,16 @@
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="63" t="s">
         <v>7</v>
       </c>
@@ -3134,36 +3140,36 @@
       <c r="K4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79" t="s">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="79"/>
+      <c r="O4" s="74"/>
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="12" t="s">
@@ -3183,15 +3189,15 @@
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3209,15 +3215,15 @@
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="12" t="s">
         <v>25</v>
       </c>
@@ -3235,15 +3241,15 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="15"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14" t="s">
@@ -3257,15 +3263,15 @@
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="15"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14" t="s">
@@ -3313,10 +3319,10 @@
       <c r="I11" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="72"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="64" t="s">
         <v>41</v>
       </c>
@@ -3351,10 +3357,10 @@
         <v>49</v>
       </c>
       <c r="D12" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>97</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>50</v>
@@ -3363,20 +3369,20 @@
         <v>51</v>
       </c>
       <c r="H12" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="74"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="65" t="s">
         <v>53</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>54</v>
@@ -3393,28 +3399,28 @@
       <c r="R12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="91" t="s">
-        <v>80</v>
+      <c r="S12" s="70" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="93">
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="71">
         <f>SUM(G12:G12)</f>
         <v>0</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="75">
+      <c r="J13" s="84">
         <f>SUM(J12:K12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="76"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="26"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
@@ -3457,21 +3463,21 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="68" t="s">
         <v>67</v>
       </c>
       <c r="J17" s="60" t="s">
@@ -3480,52 +3486,52 @@
       <c r="K17" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88" t="s">
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
       <c r="R17" s="23"/>
     </row>
     <row r="18" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="H18" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="I18" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="J18" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="K18" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="L18" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
       <c r="R18" s="23"/>
     </row>
     <row r="19" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3591,11 +3597,11 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="60" t="s">
         <v>64</v>
       </c>
@@ -3622,25 +3628,25 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="H23" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="I23" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="J23" s="60" t="s">
         <v>85</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>86</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -3648,8 +3654,8 @@
       <c r="N23" s="42"/>
       <c r="O23" s="62"/>
       <c r="P23" s="42"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="71"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3677,9 +3683,9 @@
       <c r="S24" s="23"/>
     </row>
     <row r="25" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="23"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
@@ -3695,6 +3701,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L4:M4"/>
@@ -3704,39 +3724,30 @@
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="K5:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="Q23:R23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C12:S12">
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>$C12="メトロス買取済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:S12">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>OR($K18="解除",$K18="解除（等価交換）")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($K18="解除",$K18="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3846,10 +3857,10 @@
       <c r="I4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="80"/>
       <c r="L4" s="64" t="s">
         <v>41</v>
       </c>
@@ -3860,10 +3871,10 @@
         <v>44</v>
       </c>
       <c r="O4" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="61" t="s">
         <v>99</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>100</v>
       </c>
       <c r="Q4" s="61" t="s">
         <v>47</v>
@@ -3878,10 +3889,10 @@
         <v>49</v>
       </c>
       <c r="D5" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>97</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>50</v>
@@ -3890,15 +3901,15 @@
         <v>51</v>
       </c>
       <c r="H5" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="86"/>
+      <c r="J5" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="93"/>
       <c r="L5" s="54" t="s">
         <v>53</v>
       </c>
@@ -3914,8 +3925,8 @@
       <c r="P5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="91" t="s">
-        <v>80</v>
+      <c r="Q5" s="70" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -3937,18 +3948,18 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="68" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="60" t="s">
@@ -3957,49 +3968,49 @@
       <c r="J8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88" t="s">
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="G9" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="I9" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="J9" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="K9" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
       <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/template/売買取引管理表.xlsx
+++ b/template/売買取引管理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EDA3B5-5537-48B5-AA1E-DA7AFA3BF036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD97257-AE42-4909-A054-3341166246FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
   </bookViews>
@@ -27,8 +27,8 @@
     <definedName name="Data">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ﾒﾄﾛｽ買取!$A$1:$S$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">売買取引管理表!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ﾒﾄﾛｽ買取!$A$1:$T$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">売買取引管理表!$A$1:$T$25</definedName>
     <definedName name="ProjectName" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName">{"Client Name or Project Name"}</definedName>
     <definedName name="モジュール種類">#REF!</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>$contractBukkenNo$</t>
     <phoneticPr fontId="2"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メトロス開発</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>売主</t>
     <rPh sb="0" eb="2">
       <t>ウリヌシ</t>
@@ -252,13 +248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>所在地</t>
-    <rPh sb="0" eb="3">
-      <t>ショザイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>地権者</t>
     <rPh sb="0" eb="3">
       <t>チケンシャ</t>
@@ -322,16 +311,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>引渡期日</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキワタシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キジツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>即決和解の有無等</t>
     <rPh sb="0" eb="2">
       <t>ソッケツ</t>
@@ -632,10 +611,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$payPrice_1$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$paymentMethodName_1$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -660,10 +635,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$payPrice_0$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$paymentSeason_0$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -681,10 +652,6 @@
   </si>
   <si>
     <t>$detailRemarks_0$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$address$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -715,6 +682,57 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTax_0$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTax_1$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売却</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地番</t>
+    <rPh sb="0" eb="2">
+      <t>チバン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>家屋番号</t>
+    <rPh sb="0" eb="4">
+      <t>カオクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>$blockNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$buildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済予定日</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -723,17 +741,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="5">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-411]ge\.m\.d;@"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00&quot;㎡&quot;"/>
-    <numFmt numFmtId="179" formatCode="0.00&quot;坪&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot;㎡&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot;坪&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,24 +825,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -874,36 +871,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -921,16 +888,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -951,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1031,19 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1053,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,9 +1019,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1081,263 +1031,219 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="5" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="17" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="18" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{D564ED84-1623-42A9-85B2-6C6F38B5BE7C}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3051,708 +2957,880 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.08203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.08203125" style="1"/>
+    <col min="4" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.08203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.75" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="1"/>
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="7" t="str">
+        <f>IF(G5="","",G5)</f>
+        <v>$salesName$</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="Q2" s="10"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="54"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
     </row>
-    <row r="3" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="9"/>
-      <c r="Q3" s="10"/>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="63" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="H11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="62"/>
+      <c r="M11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="74"/>
-      <c r="Q4" s="10"/>
+      <c r="P11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="10"/>
+    <row r="12" spans="1:20" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="10"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="46">
+        <f>SUM(H12,H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="66">
+        <f>SUM(K12:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="67"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="47">
+        <f>SUM(T12:T12)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="10"/>
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" s="48">
+        <f>T13*0.3025</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="10"/>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="23" customFormat="1" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="83" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="71">
-        <f>SUM(G12:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="84">
-        <f>SUM(J12:K12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="29">
-        <f>SUM(S12:S12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14" s="30"/>
-      <c r="S14" s="31">
-        <f>S13*0.3025</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="L15" s="30"/>
-      <c r="O15" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="F16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
     </row>
-    <row r="17" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="86" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="60" t="s">
+      <c r="J17" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="K17" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="L17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="M17" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17"/>
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18"/>
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="45">
+        <f>SUM(I18:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87" t="s">
+      <c r="J22" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="23"/>
+      <c r="K22" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" s="45"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
     </row>
-    <row r="18" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="23"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
     </row>
-    <row r="19" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37">
-        <f>SUM(H18:H18)</f>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="45">
+        <f>SUM(H23:H23)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
     </row>
-    <row r="20" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
+    <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="23"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="23"/>
     </row>
-    <row r="22" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-    </row>
-    <row r="23" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="23"/>
-    </row>
-    <row r="24" spans="3:19" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="44"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="37">
-        <f>SUM(G23:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-    </row>
-    <row r="25" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="42"/>
-      <c r="N25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="F27" s="47"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:E9"/>
-    <mergeCell ref="F5:H9"/>
-    <mergeCell ref="I5:I9"/>
+  <mergeCells count="21">
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="G5:I9"/>
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="K5:K9"/>
+    <mergeCell ref="L5:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C12:S12">
-    <cfRule type="expression" dxfId="4" priority="16">
+  <conditionalFormatting sqref="C12:D12 F12:T12">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>$C12="メトロス買取済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:S12">
-    <cfRule type="expression" dxfId="2" priority="15">
+  <conditionalFormatting sqref="D12 F12:T12">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>OR($K18="解除",$K18="解除（等価交換）")</formula>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>OR($L18="解除",$L18="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR($L18="解除",$L18="解除（等価交換）")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C12="メトロス買取済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($K18="解除",$K18="解除（等価交換）")</formula>
+      <formula>OR($C12="解除",$C12="解除（等価交換）")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -3765,345 +3843,447 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.08203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.08203125" style="1"/>
+    <col min="4" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.08203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.75" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="48"/>
-      <c r="Q1" s="1"/>
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
     </row>
-    <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="Q2" s="10"/>
+      <c r="K5" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="72"/>
+      <c r="M5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="9"/>
-      <c r="Q3" s="10"/>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
     </row>
-    <row r="4" spans="1:19" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="23" customFormat="1" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" s="30"/>
-      <c r="O6" s="55"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6"/>
-      <c r="C7" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="F7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="86" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="60" t="s">
+      <c r="I8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="J8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="L8" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="23"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="89" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="12" t="s">
+      <c r="K9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="L9" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="23"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
     </row>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37">
-        <f>SUM(G9:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="42"/>
-      <c r="N13" s="1"/>
-      <c r="Q13" s="1"/>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="47"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="F15" s="47"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>

--- a/template/売買取引管理表.xlsx
+++ b/template/売買取引管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD97257-AE42-4909-A054-3341166246FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1204EF-BDE9-4332-B3F1-C743BACCB64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
   </bookViews>
   <sheets>
     <sheet name="売買取引管理表" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$salesFixedConsumptionTax$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>その他清算金３</t>
   </si>
   <si>
@@ -734,6 +730,10 @@
     <rPh sb="4" eb="5">
       <t>ビ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$salesFixedBuildingTaxOnlyTax$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1161,6 +1161,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,9 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1187,36 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="5" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3064,17 +3064,17 @@
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="32" t="s">
         <v>6</v>
       </c>
@@ -3084,14 +3084,14 @@
       <c r="L4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54" t="s">
+      <c r="N4" s="65"/>
+      <c r="O4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="54"/>
+      <c r="P4" s="65"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -3100,24 +3100,24 @@
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="70" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -3140,16 +3140,16 @@
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3170,27 +3170,27 @@
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
       <c r="M7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="N7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="41" t="s">
         <v>26</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>27</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -3200,23 +3200,23 @@
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
       <c r="M8" s="10"/>
       <c r="N8" s="38"/>
       <c r="O8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="41" t="s">
         <v>28</v>
-      </c>
-      <c r="P8" s="41" t="s">
-        <v>29</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -3226,23 +3226,23 @@
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="10"/>
       <c r="N9" s="38"/>
       <c r="O9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="41" t="s">
         <v>30</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>31</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -3273,141 +3273,141 @@
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11"/>
       <c r="C11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="J11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="K11" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="L11" s="56"/>
+      <c r="M11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="33" t="s">
-        <v>39</v>
-      </c>
       <c r="N11" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="R11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="S11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="T11" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12"/>
       <c r="C12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="H12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="58"/>
+      <c r="M12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="51" t="s">
+      <c r="O12" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="39" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="C13" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="46">
         <f>SUM(H12,H12)</f>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="66">
+      <c r="K13" s="61">
         <f>SUM(K12:L12)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="67"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="17"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -3462,10 +3462,10 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -3475,7 +3475,7 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -3498,80 +3498,80 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="30" t="s">
+      <c r="H17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="I17" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="J17" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="K17" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="L17" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="M17" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="69" t="s">
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
       <c r="S17"/>
       <c r="T17"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="I18" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="30" t="s">
+      <c r="K18" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="L18" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="M18" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="70" t="s">
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
       <c r="S18"/>
       <c r="T18"/>
     </row>
@@ -3626,7 +3626,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -3649,26 +3649,26 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="30" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="29" t="s">
-        <v>71</v>
-      </c>
       <c r="K22" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -3683,26 +3683,26 @@
     <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="30" t="s">
+      <c r="J23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="K23" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -3722,7 +3722,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="45">
         <f>SUM(H23:H23)</f>
@@ -3771,18 +3771,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="M4:N4"/>
@@ -3792,6 +3780,18 @@
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="L5:L9"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C12:D12 F12:T12">
@@ -3913,10 +3913,10 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -3948,17 +3948,17 @@
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>4</v>
@@ -3967,89 +3967,89 @@
         <v>7</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="33" t="s">
-        <v>39</v>
-      </c>
       <c r="N4" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="31" t="s">
-        <v>93</v>
-      </c>
       <c r="R4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>101</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="I5" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="71" t="s">
         <v>48</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>49</v>
       </c>
       <c r="L5" s="72"/>
       <c r="M5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="37" t="s">
-        <v>51</v>
-      </c>
       <c r="O5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="Q5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="37" t="s">
-        <v>55</v>
-      </c>
       <c r="R5" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -4080,7 +4080,7 @@
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -4103,37 +4103,37 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="30" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="J8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="K8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="L8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
@@ -4141,37 +4141,37 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="40" t="s">
-        <v>83</v>
-      </c>
       <c r="H9" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="K9" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>

--- a/template/売買取引管理表.xlsx
+++ b/template/売買取引管理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1204EF-BDE9-4332-B3F1-C743BACCB64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D1F70-9590-40F4-9743-B39378A06C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8E161B8-CFB9-4C20-B6F4-49B057FB04B2}"/>
   </bookViews>
@@ -1006,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3064,17 +3067,17 @@
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="32" t="s">
         <v>6</v>
       </c>
@@ -3084,14 +3087,14 @@
       <c r="L4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65" t="s">
+      <c r="N4" s="66"/>
+      <c r="O4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="65"/>
+      <c r="P4" s="66"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -3100,24 +3103,24 @@
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="71" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -3140,14 +3143,14 @@
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
       <c r="M6" s="8" t="s">
@@ -3170,14 +3173,14 @@
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
       <c r="M7" s="8" t="s">
@@ -3200,14 +3203,14 @@
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="69"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
       <c r="M8" s="10"/>
@@ -3226,14 +3229,14 @@
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
-      <c r="J9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="10"/>
@@ -3667,11 +3670,11 @@
       <c r="J22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="L22"/>
-      <c r="M22"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
       <c r="N22"/>
       <c r="O22" s="45"/>
       <c r="P22"/>
@@ -3701,11 +3704,11 @@
       <c r="J23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="L23"/>
-      <c r="M23"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -3770,7 +3773,7 @@
       <c r="G27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="M4:N4"/>
@@ -3786,12 +3789,14 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K23:M23"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="P18:R18"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C12:D12 F12:T12">
@@ -4029,10 +4034,10 @@
       <c r="J5" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="72"/>
+      <c r="L5" s="73"/>
       <c r="M5" s="43" t="s">
         <v>49</v>
       </c>
